--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2574887.15592977</v>
+        <v>2641667.433726262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4994098.704305335</v>
+        <v>5048117.306579105</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>249.6137623779653</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>327.2879775827834</v>
-      </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.0421591038492</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>178.9654853621852</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>39.34122081347544</v>
+        <v>317.6904966059936</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>32.12753794460117</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>9.182702386194837</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,10 +1133,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>248.2911021904613</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1193,13 +1193,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>284.5373769136796</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.64034175572607</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>265.766660632728</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>215.611122386457</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225768</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.92574903168972</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>326.8694217223833</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>26.70160847752089</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>48.28314334362842</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2375,7 +2375,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655108</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>52.79556056591009</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>122.974276743058</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>159.6574681744388</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480023126</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3743,7 +3743,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>342.3473053366183</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,16 +3898,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>43.70143389869422</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3958,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>210.7188667421538</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3986,7 +3986,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.670777199071</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>140.5689102989814</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946043</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1571.10956023096</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035836</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4328,22 +4328,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1593.368726675464</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,34 +4395,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.509060631519</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1259.509060631519</v>
+        <v>1516.410212542856</v>
       </c>
       <c r="X4" t="n">
-        <v>1259.509060631519</v>
+        <v>1271.018457876269</v>
       </c>
       <c r="Y4" t="n">
-        <v>1259.509060631519</v>
+        <v>1043.598787190377</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>863.0357172789485</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>828.9336485027759</v>
       </c>
       <c r="D5" t="n">
-        <v>1580.920758388652</v>
+        <v>508.0341569815702</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.33908412592</v>
+        <v>74.25941213986539</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>674.5331706342571</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1298.633954679037</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1897.518545429079</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2116.763874884892</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1697.621411464203</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1289.335287763856</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>431.6596472970907</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>431.6596472970907</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>431.6596472970907</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>431.6596472970907</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970907</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.297901441134</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>206.297901441134</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>206.297901441134</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>206.297901441134</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>206.297901441134</v>
+        <v>444.5857850985997</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1380.298400881886</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2362.377960771855</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1093267936133</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>433.7175721270257</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.297901441134</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.6066390714051</v>
+        <v>1197.718769568168</v>
       </c>
       <c r="C8" t="n">
-        <v>408.5045702952325</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D8" t="n">
-        <v>376.6351895100811</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>346.9008487087803</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>323.0738231583921</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>484.2135845561366</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X8" t="n">
-        <v>469.1115251758513</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8658055159088</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939382</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172021</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111518</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111518</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503958</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777444</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415476</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1920.631967059184</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1648.605562645476</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1403.213807978889</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.794137292997</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111518</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.925458503958</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.89235417964</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>965.4711828007307</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>792.9094712839557</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>627.0314784854784</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>457.2734747362157</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>280.566420697972</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>114.9751457237997</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2701.823733979953</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U16" t="n">
-        <v>2189.083139415475</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V16" t="n">
-        <v>1902.127631285906</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W16" t="n">
-        <v>1630.101226872197</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.70947220561</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y16" t="n">
-        <v>1157.289801519718</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.80576642952</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>98.58334842137107</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K17" t="n">
-        <v>98.58334842137107</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L17" t="n">
-        <v>122.2462103062017</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1279.294045516752</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.0250289532</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523506</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315497</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068553</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941592</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.877891258609</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.260941192435</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3682.405486603468</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3263.263023182779</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2854.976899482433</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.58334842137107</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58334842137107</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>98.58334842137107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>98.58334842137107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>98.58334842137107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>98.58334842137107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.1882266945667</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1032.051119210943</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180002</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563212</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905995</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.2713211591</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.315813029531</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615822</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1451.289408615822</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1223.86973792993</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5756,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6023,13 +6023,13 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6066,22 +6066,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1068.769857140659</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>896.2081456238835</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674087</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545538</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1260.588475859646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,25 +6941,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7178,22 +7178,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.336856393764</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>617.775144876989</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>451.8971520785117</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>282.139148329249</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>105.432094291005</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465231</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127512</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638994</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822417</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>213.752215763834</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.800050974385</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244938</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824248</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4134685305237</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4134685305237</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>100.4134685305237</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4134685305237</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>100.4134685305237</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>100.4134685305237</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>286.0183468037192</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1006.90991762563</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271528</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>671.27392107789</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663487</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.88030356899</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.655257138695</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2449.77581071715</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.342809970256</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1884.387301840686</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1671.539961697096</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1426.148207030509</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.728536344617</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>96.73597668111518</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M44" t="n">
-        <v>1253.783811891666</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N44" t="n">
-        <v>2379.514795328113</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O44" t="n">
-        <v>3359.694461898419</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>4188.004336731816</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302702</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.798049006192</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.798049006192</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111518</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1063.244993550994</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>890.683282034219</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>748.6944837524196</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>578.9364800031569</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>402.2294259649132</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.84052543547</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066056</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745667</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289286</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2286.856950165738</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1999.901442036169</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1727.87503762246</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1482.483282955873</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1255.063612269981</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,13 +7988,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,19 +8061,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,22 +8222,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>604.9339300505471</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>358.7510985324808</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388476193</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069174816</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639498</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>484.4852854251385</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>18.31929241554582</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>185.19577765662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790358</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95.16715305767542</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>144.1344859240864</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>227.3655273957973</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.4236523045824</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.488005804594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7958207444075</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>89.20338164068164</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>124.3589898130759</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>58.5872736274176</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.14457787893036</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>23.65030257151111</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>422942.2987515112</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>428772.4239884376</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
         <v>495936.2708986278</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="E2" t="n">
-        <v>467609.6056238005</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>467609.6056238005</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="G2" t="n">
-        <v>474208.0319335124</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="H2" t="n">
         <v>487343.2653270506</v>
       </c>
       <c r="I2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
         <v>487343.2653270507</v>
@@ -26341,19 +26341,19 @@
         <v>487343.2653270507</v>
       </c>
       <c r="L2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="M2" t="n">
         <v>487343.2653270506</v>
       </c>
       <c r="N2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="O2" t="n">
-        <v>480744.8390173389</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="P2" t="n">
-        <v>467609.6056238005</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850446</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996339</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970936</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>806.3323907825584</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687732</v>
+        <v>806.3323907825178</v>
       </c>
       <c r="G4" t="n">
-        <v>784.5995283440673</v>
+        <v>806.3323907825352</v>
       </c>
       <c r="H4" t="n">
+        <v>806.3323907825455</v>
+      </c>
+      <c r="I4" t="n">
         <v>806.3323907826023</v>
-      </c>
-      <c r="I4" t="n">
-        <v>806.3323907826432</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26454,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>795.4149836073082</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687733</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125152.0888319355</v>
+        <v>125152.0888319356</v>
       </c>
       <c r="C6" t="n">
-        <v>267343.3894916457</v>
+        <v>235394.7253985149</v>
       </c>
       <c r="D6" t="n">
-        <v>267343.3894916456</v>
+        <v>296691.7445686369</v>
       </c>
       <c r="E6" t="n">
-        <v>158961.5592029468</v>
+        <v>226440.3607700434</v>
       </c>
       <c r="F6" t="n">
-        <v>393316.5812249843</v>
+        <v>408795.4699910929</v>
       </c>
       <c r="G6" t="n">
-        <v>392170.8765620759</v>
+        <v>408795.469991093</v>
       </c>
       <c r="H6" t="n">
-        <v>396415.9393505122</v>
+        <v>408795.4699910929</v>
       </c>
       <c r="I6" t="n">
-        <v>408818.6943304756</v>
+        <v>408795.4699910929</v>
       </c>
       <c r="J6" t="n">
-        <v>297804.2289854853</v>
+        <v>297781.0046461027</v>
       </c>
       <c r="K6" t="n">
-        <v>408818.6943304756</v>
+        <v>355749.6153523201</v>
       </c>
       <c r="L6" t="n">
-        <v>408818.6943304756</v>
+        <v>399403.1682644708</v>
       </c>
       <c r="M6" t="n">
-        <v>213217.5150474078</v>
+        <v>256595.2990531053</v>
       </c>
       <c r="N6" t="n">
-        <v>408818.6943304756</v>
+        <v>408795.469991093</v>
       </c>
       <c r="O6" t="n">
-        <v>403635.1879505336</v>
+        <v>408795.469991093</v>
       </c>
       <c r="P6" t="n">
-        <v>393316.5812249843</v>
+        <v>408795.469991093</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.828422470899913e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760685</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.828422470899913e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760685</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>184.1472857104456</v>
       </c>
       <c r="D2" t="n">
-        <v>104.2627093945165</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.85827342794803</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>90.34065500738615</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>392.2094661638245</v>
+        <v>113.8601903713063</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>131.8078242798294</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>234.2379495711344</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>183.2595847868386</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>116.2695231293974</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.526794458855493e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-2.964482299485726e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,22 +34942,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>604.9339300505471</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>358.7510985324808</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,19 +35024,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388476193</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069174816</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639498</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37938,22 +37938,22 @@
         <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960961</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38035,10 +38035,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>484.4852854251385</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908122</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
